--- a/V2_1-BOM.xlsx
+++ b/V2_1-BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pwver\Documents\Hobby\ReflowHotPlate\HeatPlateConversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCAF4672-8F72-40DF-A14F-80FB01E57DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83562697-CD64-4F86-8F2B-80A78279BDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1140" windowWidth="24510" windowHeight="15255" xr2:uid="{8F50E387-7035-4AB5-BF3A-308C1218800F}"/>
+    <workbookView xWindow="3375" yWindow="1425" windowWidth="24510" windowHeight="15255" xr2:uid="{8F50E387-7035-4AB5-BF3A-308C1218800F}"/>
   </bookViews>
   <sheets>
     <sheet name="V2_1-BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="103">
   <si>
     <t>Reference</t>
   </si>
@@ -254,13 +254,88 @@
   </si>
   <si>
     <t>Package_TO_SOT_SMD:SOT-223-3_TabPin2</t>
+  </si>
+  <si>
+    <t>Waveshare</t>
+  </si>
+  <si>
+    <t>Heater element</t>
+  </si>
+  <si>
+    <t>220V 250 degreeC 300W</t>
+  </si>
+  <si>
+    <t>SSR-40 DA</t>
+  </si>
+  <si>
+    <t>Solid State Relais</t>
+  </si>
+  <si>
+    <t>2.4"SPI 240x320 with ILI9341 driver</t>
+  </si>
+  <si>
+    <t>RGB TFT display</t>
+  </si>
+  <si>
+    <t>https://nl.aliexpress.com/item/32854686343.html?spm=a2g0o.order_list.order_list_main.5.63bb79d2zTMKcl&amp;gatewayAdapt=glo2nld</t>
+  </si>
+  <si>
+    <t>K-Type sensor</t>
+  </si>
+  <si>
+    <t>Insulation blanket</t>
+  </si>
+  <si>
+    <t>FLASLD aluminium heatshield blanket</t>
+  </si>
+  <si>
+    <t>The one I ordered is no longer available, but there are many others</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/dp/B0B19RNB3T?ref_=ppx_hzod_title_dt_b_fed_asin_title_0_0&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/dp/B0C9F187RQ?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/dp/B08H24H7KX?ref=ppx_yo2ov_dt_b_fed_asin_title&amp;th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.nl/Relais-Eenfase-SSR-40DA-24-380V-Relaismodule/dp/B07HB3JXGG/ref=sr_1_1_sspa?__mk_nl_NL=%C3%85M%C3%85%C5%BD%C3%95%C3%91&amp;crid=3C2JFANRODBPX&amp;dib=eyJ2IjoiMSJ9.i-azeWWndKw1g8EuvXNmWCcApIIj3aQPny46-c4GTNzZUi7q6biab31AZMgssa2KXRzzl3V65jFQEDaJ8rdbjOZRAk3ihFhtlF4XLW1vY3ffW90ranGTFNSh6XcczIkmfCpwq0Hq4zycbadHxDAY80BR15hFA_I7BJSa40qii5FFbffI5Lvk_LytXBJGWNrtjQWenkOyilNJbfVYN_lTLh1e3XhKjcAzgSCLE6p-fIGn_Ejo0QRHPhTksMGPTkHLU0eXE6leXT_MeoJ556D4DUW_wtJSWrYa9H9PF37x2LE.soiOgJh5tEPfqYilWH7Tit3mIVLvl9i1c8s6EotjzCI&amp;dib_tag=se&amp;keywords=ssr40+DA&amp;qid=1742133138&amp;sprefix=ssr40+da%2Caps%2C81&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;psc=1</t>
+  </si>
+  <si>
+    <t>Off board components</t>
+  </si>
+  <si>
+    <t>Standoff</t>
+  </si>
+  <si>
+    <t>8mm M3</t>
+  </si>
+  <si>
+    <t>Must have lug!</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>For the rotary encoder</t>
+  </si>
+  <si>
+    <t>DC chassis part</t>
+  </si>
+  <si>
+    <t>For the fan(s)</t>
+  </si>
+  <si>
+    <t>LJXH 170X62X5.5mm PTC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +466,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -693,7 +776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -736,8 +819,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -746,8 +830,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -781,6 +867,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1101,18 +1188,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3D8E05-155F-4E40-90D2-B9684C358C39}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.42578125" customWidth="1"/>
     <col min="5" max="5" width="101.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1544,7 +1631,127 @@
         <v>77</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{F3D6C49D-D991-4557-98F5-AC2E8CF9317E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>